--- a/public/uploads/region.xlsx
+++ b/public/uploads/region.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\Docs\Growers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\agro-zoid\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D1EA1D-EF08-4108-921C-04DB949D268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CB3DF7-B639-49CC-BE76-3EBB67CA6F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>totalQty</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>MC</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>mashwest</t>
   </si>
 </sst>
 </file>
@@ -396,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,6 +534,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
